--- a/src/main/java/SOR_resources/Test_DataCopy.xlsx
+++ b/src/main/java/SOR_resources/Test_DataCopy.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="182">
   <si>
     <t>Module</t>
   </si>
@@ -577,186 +577,6 @@
   </si>
   <si>
     <t>EgDtmMyycV9dHAO</t>
-  </si>
-  <si>
-    <t>Grp_02</t>
-  </si>
-  <si>
-    <t>All_All_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>AEPS</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>All_All_MiniStatement</t>
-  </si>
-  <si>
-    <t>MiniStatement</t>
-  </si>
-  <si>
-    <t>All_All_Withdrawal</t>
-  </si>
-  <si>
-    <t>Withdrawal</t>
-  </si>
-  <si>
-    <t>BC000001_All_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>BC000001</t>
-  </si>
-  <si>
-    <t>BC000001_All_MiniStatement</t>
-  </si>
-  <si>
-    <t>BC000001_All_Withdrawal</t>
-  </si>
-  <si>
-    <t>BC000002_All_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>BC000002</t>
-  </si>
-  <si>
-    <t>BC000002_All_MiniStatement</t>
-  </si>
-  <si>
-    <t>BC000002_All_Withdrawal</t>
-  </si>
-  <si>
-    <t>BC000003_All_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>BC000003</t>
-  </si>
-  <si>
-    <t>BC000003_All_MiniStatement</t>
-  </si>
-  <si>
-    <t>BC000003_All_Withdrawal</t>
-  </si>
-  <si>
-    <t>BC000004_All_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>BC000004</t>
-  </si>
-  <si>
-    <t>BC000004_All_MiniStatement</t>
-  </si>
-  <si>
-    <t>BC000004_All_Withdrawal</t>
-  </si>
-  <si>
-    <t>All_67890_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>67890</t>
-  </si>
-  <si>
-    <t>All_67890_MiniStatement</t>
-  </si>
-  <si>
-    <t>All_67890_Withdrawal</t>
-  </si>
-  <si>
-    <t>BC000001_67890_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>BC000001_67890_MiniStatement</t>
-  </si>
-  <si>
-    <t>BC000001_67890_Withdrawal</t>
-  </si>
-  <si>
-    <t>BC000002_67890_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>BC000002_67890_MiniStatement</t>
-  </si>
-  <si>
-    <t>BC000002_67890_Withdrawal</t>
-  </si>
-  <si>
-    <t>BC000003_67890_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>BC000003_67890_MiniStatement</t>
-  </si>
-  <si>
-    <t>BC000003_67890_Withdrawal</t>
-  </si>
-  <si>
-    <t>BC000004_67890_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>BC000004_67890_MiniStatement</t>
-  </si>
-  <si>
-    <t>BC000004_67890_Withdrawal</t>
-  </si>
-  <si>
-    <t>All_12123_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>12123</t>
-  </si>
-  <si>
-    <t>All_12123_MiniStatement</t>
-  </si>
-  <si>
-    <t>All_12123_Withdrawal</t>
-  </si>
-  <si>
-    <t>BC000001_12123_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>BC000001_12123_MiniStatement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failed: </t>
-  </si>
-  <si>
-    <t>BC000001_12123_Withdrawal</t>
-  </si>
-  <si>
-    <t>BC000002_12123_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>BC000002_12123_MiniStatement</t>
-  </si>
-  <si>
-    <t>BC000002_12123_Withdrawal</t>
-  </si>
-  <si>
-    <t>BC000003_12123_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>BC000003_12123_MiniStatement</t>
-  </si>
-  <si>
-    <t>BC000003_12123_Withdrawal</t>
-  </si>
-  <si>
-    <t>BC000004_12123_BalanceEnquiry</t>
-  </si>
-  <si>
-    <t>BC000004_12123_MiniStatement</t>
-  </si>
-  <si>
-    <t>BC000004_12123_Withdrawal</t>
-  </si>
-  <si>
-    <t>Failed: Rule Name Already Exists. Try again</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1773,25 +1593,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.0"/>
-    <col min="3" max="3" customWidth="true" width="15.1083333333333"/>
-    <col min="4" max="4" customWidth="true" width="25.2166666666667"/>
-    <col min="5" max="5" customWidth="true" width="21.3333333333333"/>
-    <col min="6" max="6" customWidth="true" width="33.6666666666667"/>
-    <col min="7" max="7" customWidth="true" width="13.5583333333333"/>
-    <col min="8" max="8" customWidth="true" width="20.5583333333333"/>
-    <col min="9" max="9" customWidth="true" width="14.1083333333333"/>
-    <col min="10" max="10" customWidth="true" width="12.8833333333333"/>
-    <col min="11" max="11" customWidth="true" width="15.1083333333333"/>
-    <col min="12" max="12" customWidth="true" width="26.0"/>
-    <col min="13" max="13" customWidth="true" width="11.0"/>
-    <col min="14" max="14" customWidth="true" width="15.3333333333333"/>
-    <col min="15" max="15" customWidth="true" width="29.5583333333333"/>
-    <col min="17" max="17" customWidth="true" width="30.5583333333333"/>
-    <col min="19" max="19" customWidth="true" width="15.1083333333333"/>
-    <col min="20" max="20" customWidth="true" width="15.3333333333333"/>
-    <col min="21" max="21" customWidth="true" width="15.1083333333333"/>
-    <col min="22" max="22" customWidth="true" width="26.0"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="3" max="3" width="15.1083333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="21.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="33.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.5583333333333" customWidth="1"/>
+    <col min="8" max="8" width="20.5583333333333" customWidth="1"/>
+    <col min="9" max="9" width="14.1083333333333" customWidth="1"/>
+    <col min="10" max="10" width="12.8833333333333" customWidth="1"/>
+    <col min="11" max="11" width="15.1083333333333" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="15.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="29.5583333333333" customWidth="1"/>
+    <col min="17" max="17" width="30.5583333333333" customWidth="1"/>
+    <col min="19" max="19" width="15.1083333333333" customWidth="1"/>
+    <col min="20" max="20" width="15.3333333333333" customWidth="1"/>
+    <col min="21" max="21" width="15.1083333333333" customWidth="1"/>
+    <col min="22" max="22" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:1">
@@ -1806,7 +1626,7 @@
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -1818,13 +1638,13 @@
       <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>15</v>
       </c>
     </row>
@@ -1839,19 +1659,19 @@
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1866,7 +1686,7 @@
       <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1878,13 +1698,13 @@
       <c r="G6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2088,34 +1908,34 @@
       </c>
     </row>
     <row r="17" spans="3:12">
-      <c r="C17" t="s" s="0">
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="F17" t="s" s="0">
+      <c r="F17" t="s">
         <v>68</v>
       </c>
-      <c r="G17" t="s" s="0">
+      <c r="G17" t="s">
         <v>59</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="H17" t="s">
         <v>69</v>
       </c>
-      <c r="I17" t="s" s="0">
+      <c r="I17" t="s">
         <v>61</v>
       </c>
-      <c r="J17" t="s" s="0">
+      <c r="J17" t="s">
         <v>70</v>
       </c>
-      <c r="K17" t="s" s="0">
+      <c r="K17" t="s">
         <v>63</v>
       </c>
-      <c r="L17" t="s" s="0">
+      <c r="L17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2745,18 +2565,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="6" width="12.5583333333333"/>
-    <col min="2" max="2" customWidth="true" style="6" width="7.44166666666667"/>
-    <col min="3" max="3" customWidth="true" style="6" width="13.4416666666667"/>
-    <col min="4" max="4" customWidth="true" style="6" width="21.8833333333333"/>
-    <col min="5" max="5" customWidth="true" style="6" width="16.6666666666667"/>
-    <col min="6" max="6" customWidth="true" style="6" width="23.5583333333333"/>
-    <col min="7" max="7" customWidth="true" style="6" width="13.4416666666667"/>
-    <col min="8" max="8" customWidth="true" style="6" width="15.3333333333333"/>
-    <col min="9" max="9" customWidth="true" style="6" width="14.5583333333333"/>
-    <col min="10" max="10" customWidth="true" style="6" width="13.4416666666667"/>
-    <col min="11" max="11" customWidth="true" style="6" width="15.1083333333333"/>
-    <col min="12" max="18" customWidth="true" style="6" width="13.4416666666667"/>
+    <col min="1" max="1" width="12.5583333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.44166666666667" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.4416666666667" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.8833333333333" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.5583333333333" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.4416666666667" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.3333333333333" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.5583333333333" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.4416666666667" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15.1083333333333" style="6" customWidth="1"/>
+    <col min="12" max="18" width="13.4416666666667" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:1">
@@ -2881,20 +2701,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5"/>
-    <col min="2" max="2" customWidth="true" width="10.625"/>
-    <col min="3" max="3" customWidth="true" width="12.5"/>
-    <col min="4" max="4" customWidth="true" width="18.625"/>
-    <col min="5" max="5" customWidth="true" width="18.125"/>
-    <col min="6" max="6" customWidth="true" width="26.625"/>
-    <col min="7" max="7" customWidth="true" width="14.375"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="9" width="11.5"/>
-    <col min="10" max="10" customWidth="true" width="13.875"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="11.5"/>
-    <col min="12" max="12" customWidth="true" width="16.875"/>
-    <col min="14" max="14" customWidth="true" width="16.875"/>
-    <col min="15" max="15" customWidth="true" width="12.625"/>
-    <col min="22" max="22" customWidth="true" width="13.625"/>
+    <col min="12" max="12" width="16.875" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="12.625" customWidth="1"/>
+    <col min="22" max="22" width="13.625" customWidth="1"/>
     <col min="24" max="32" width="11.5"/>
     <col min="34" max="34" width="11.5"/>
     <col min="36" max="36" width="11.5"/>
@@ -2939,146 +2759,146 @@
       <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="0">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="N1" s="0">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="O1" s="0">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="P1" s="0">
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="Q1" s="0">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="R1" s="0">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="S1" s="0">
+      <c r="S1">
         <v>18</v>
       </c>
-      <c r="T1" s="0">
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="U1" s="0">
+      <c r="U1">
         <v>20</v>
       </c>
-      <c r="V1" s="0">
+      <c r="V1">
         <v>21</v>
       </c>
-      <c r="W1" s="0">
+      <c r="W1">
         <v>22</v>
       </c>
-      <c r="X1" s="0">
+      <c r="X1">
         <v>23</v>
       </c>
-      <c r="Y1" s="0">
+      <c r="Y1">
         <v>24</v>
       </c>
-      <c r="Z1" s="0">
+      <c r="Z1">
         <v>25</v>
       </c>
-      <c r="AA1" s="0">
+      <c r="AA1">
         <v>26</v>
       </c>
-      <c r="AB1" s="0">
+      <c r="AB1">
         <v>27</v>
       </c>
-      <c r="AC1" s="0">
+      <c r="AC1">
         <v>28</v>
       </c>
-      <c r="AD1" s="0">
+      <c r="AD1">
         <v>29</v>
       </c>
-      <c r="AE1" s="0">
+      <c r="AE1">
         <v>30</v>
       </c>
-      <c r="AF1" s="0">
+      <c r="AF1">
         <v>31</v>
       </c>
-      <c r="AG1" s="0">
+      <c r="AG1">
         <v>32</v>
       </c>
-      <c r="AH1" s="0">
+      <c r="AH1">
         <v>33</v>
       </c>
-      <c r="AI1" s="0">
+      <c r="AI1">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0">
+      <c r="AJ1">
         <v>35</v>
       </c>
-      <c r="AK1" s="0">
+      <c r="AK1">
         <v>36</v>
       </c>
-      <c r="AL1" s="0">
+      <c r="AL1">
         <v>37</v>
       </c>
-      <c r="AM1" s="0">
+      <c r="AM1">
         <v>38</v>
       </c>
-      <c r="AN1" s="0">
+      <c r="AN1">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>121</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>123</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>124</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>125</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>128</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>129</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>130</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3086,7 +2906,7 @@
       <c r="A10" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>121</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -3103,309 +2923,309 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>137</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B13" t="s">
         <v>138</v>
       </c>
-      <c r="C13" t="s" s="0">
+      <c r="C13" t="s">
         <v>139</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="D13" t="s">
         <v>140</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" t="s">
         <v>141</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="G13" t="s" s="0">
+      <c r="G13" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>8585656999</v>
       </c>
-      <c r="I13" t="s" s="0">
+      <c r="I13" t="s">
         <v>144</v>
       </c>
-      <c r="J13" t="s" s="0">
+      <c r="J13" t="s">
         <v>145</v>
       </c>
-      <c r="K13" t="s" s="0">
+      <c r="K13" t="s">
         <v>146</v>
       </c>
-      <c r="L13" t="s" s="0">
+      <c r="L13" t="s">
         <v>147</v>
       </c>
-      <c r="M13" t="s" s="0">
+      <c r="M13" t="s">
         <v>148</v>
       </c>
-      <c r="N13" s="0">
+      <c r="N13">
         <v>400001</v>
       </c>
-      <c r="O13" t="s" s="0">
+      <c r="O13" t="s">
         <v>149</v>
       </c>
-      <c r="P13" t="s" s="0">
+      <c r="P13" t="s">
         <v>150</v>
       </c>
-      <c r="Q13" t="s" s="0">
+      <c r="Q13" t="s">
         <v>151</v>
       </c>
-      <c r="R13" t="s" s="0">
+      <c r="R13" t="s">
         <v>152</v>
       </c>
-      <c r="S13" t="s" s="0">
+      <c r="S13" t="s">
         <v>153</v>
       </c>
-      <c r="T13" t="s" s="0">
+      <c r="T13" t="s">
         <v>154</v>
       </c>
-      <c r="U13" t="s" s="0">
+      <c r="U13" t="s">
         <v>155</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="W13" t="s" s="0">
+      <c r="W13" t="s">
         <v>157</v>
       </c>
-      <c r="X13" s="0">
+      <c r="X13">
         <v>9874563215</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:1">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" t="s" s="0">
+      <c r="A16" t="s">
         <v>159</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B16" t="s">
         <v>160</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="C16" t="s">
         <v>139</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="D16" t="s">
         <v>140</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" t="s">
         <v>141</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="G16" t="s" s="0">
+      <c r="G16" t="s">
         <v>161</v>
       </c>
-      <c r="H16" t="s" s="0">
+      <c r="H16" t="s">
         <v>162</v>
       </c>
-      <c r="I16" t="s" s="0">
+      <c r="I16" t="s">
         <v>143</v>
       </c>
-      <c r="J16" s="0">
+      <c r="J16">
         <v>8585656999</v>
       </c>
-      <c r="K16" t="s" s="0">
+      <c r="K16" t="s">
         <v>144</v>
       </c>
-      <c r="L16" t="s" s="0">
+      <c r="L16" t="s">
         <v>145</v>
       </c>
-      <c r="M16" t="s" s="0">
+      <c r="M16" t="s">
         <v>146</v>
       </c>
-      <c r="N16" t="s" s="0">
+      <c r="N16" t="s">
         <v>147</v>
       </c>
-      <c r="O16" t="s" s="0">
+      <c r="O16" t="s">
         <v>148</v>
       </c>
-      <c r="P16" s="0">
+      <c r="P16">
         <v>400001</v>
       </c>
-      <c r="Q16" t="s" s="0">
+      <c r="Q16" t="s">
         <v>149</v>
       </c>
-      <c r="R16" t="s" s="0">
+      <c r="R16" t="s">
         <v>150</v>
       </c>
-      <c r="S16" t="s" s="0">
+      <c r="S16" t="s">
         <v>151</v>
       </c>
-      <c r="T16" t="s" s="0">
+      <c r="T16" t="s">
         <v>152</v>
       </c>
-      <c r="U16" t="s" s="0">
+      <c r="U16" t="s">
         <v>153</v>
       </c>
-      <c r="V16" t="s" s="0">
+      <c r="V16" t="s">
         <v>154</v>
       </c>
-      <c r="W16" t="s" s="0">
+      <c r="W16" t="s">
         <v>155</v>
       </c>
       <c r="X16" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="Y16" t="s" s="0">
+      <c r="Y16" t="s">
         <v>157</v>
       </c>
-      <c r="Z16" s="0">
+      <c r="Z16">
         <v>9874563215</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:1">
-      <c r="A18" t="s" s="0">
+      <c r="A18" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s" s="0">
+      <c r="A19" t="s">
         <v>164</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B19" t="s">
         <v>165</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="C19" t="s">
         <v>166</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="D19" t="s">
         <v>167</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" t="s">
         <v>139</v>
       </c>
-      <c r="F19" t="s" s="0">
+      <c r="F19" t="s">
         <v>140</v>
       </c>
-      <c r="G19" t="s" s="0">
+      <c r="G19" t="s">
         <v>141</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="I19" t="s" s="0">
+      <c r="I19" t="s">
         <v>168</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="K19" t="s" s="0">
+      <c r="K19" t="s">
         <v>143</v>
       </c>
-      <c r="L19" s="0">
+      <c r="L19">
         <v>8585656999</v>
       </c>
-      <c r="M19" t="s" s="0">
+      <c r="M19" t="s">
         <v>144</v>
       </c>
-      <c r="N19" t="s" s="0">
+      <c r="N19" t="s">
         <v>145</v>
       </c>
-      <c r="O19" t="s" s="0">
+      <c r="O19" t="s">
         <v>170</v>
       </c>
-      <c r="P19" t="s" s="0">
+      <c r="P19" t="s">
         <v>171</v>
       </c>
-      <c r="Q19" t="s" s="0">
+      <c r="Q19" t="s">
         <v>172</v>
       </c>
-      <c r="R19" t="s" s="0">
+      <c r="R19" t="s">
         <v>173</v>
       </c>
-      <c r="S19" t="s" s="0">
+      <c r="S19" t="s">
         <v>174</v>
       </c>
-      <c r="T19" t="s" s="0">
+      <c r="T19" t="s">
         <v>175</v>
       </c>
-      <c r="U19" t="s" s="0">
+      <c r="U19" t="s">
         <v>176</v>
       </c>
-      <c r="V19" t="s" s="0">
+      <c r="V19" t="s">
         <v>177</v>
       </c>
-      <c r="W19" t="s" s="0">
+      <c r="W19" t="s">
         <v>178</v>
       </c>
-      <c r="X19" s="0">
+      <c r="X19">
         <v>10.32</v>
       </c>
-      <c r="Y19" t="s" s="0">
+      <c r="Y19" t="s">
         <v>179</v>
       </c>
-      <c r="Z19" s="0">
+      <c r="Z19">
         <v>11.33</v>
       </c>
-      <c r="AA19" t="s" s="0">
+      <c r="AA19" t="s">
         <v>146</v>
       </c>
-      <c r="AB19" t="s" s="0">
+      <c r="AB19" t="s">
         <v>147</v>
       </c>
-      <c r="AC19" t="s" s="0">
+      <c r="AC19" t="s">
         <v>148</v>
       </c>
-      <c r="AD19" s="0">
+      <c r="AD19">
         <v>400001</v>
       </c>
-      <c r="AE19" t="s" s="0">
+      <c r="AE19" t="s">
         <v>149</v>
       </c>
-      <c r="AF19" t="s" s="0">
+      <c r="AF19" t="s">
         <v>150</v>
       </c>
-      <c r="AG19" t="s" s="0">
+      <c r="AG19" t="s">
         <v>151</v>
       </c>
-      <c r="AH19" t="s" s="0">
+      <c r="AH19" t="s">
         <v>152</v>
       </c>
-      <c r="AI19" t="s" s="0">
+      <c r="AI19" t="s">
         <v>153</v>
       </c>
-      <c r="AJ19" t="s" s="0">
+      <c r="AJ19" t="s">
         <v>154</v>
       </c>
-      <c r="AK19" t="s" s="0">
+      <c r="AK19" t="s">
         <v>155</v>
       </c>
       <c r="AL19" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AM19" t="s" s="0">
+      <c r="AM19" t="s">
         <v>157</v>
       </c>
-      <c r="AN19" s="0">
+      <c r="AN19">
         <v>9874563215</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" t="s" s="0">
+      <c r="A21" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s" s="0">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="B22" t="s">
         <v>181</v>
       </c>
-      <c r="C22" t="s" s="0">
+      <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -3473,119 +3293,119 @@
       <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="0">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="N1" s="0">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="O1" s="0">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="P1" s="0">
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="Q1" s="0">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="R1" s="0">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="S1" s="0">
+      <c r="S1">
         <v>18</v>
       </c>
-      <c r="T1" s="0">
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="U1" s="0">
+      <c r="U1">
         <v>20</v>
       </c>
-      <c r="V1" s="0">
+      <c r="V1">
         <v>21</v>
       </c>
-      <c r="W1" s="0">
+      <c r="W1">
         <v>22</v>
       </c>
-      <c r="X1" s="0">
+      <c r="X1">
         <v>23</v>
       </c>
-      <c r="Y1" s="0">
+      <c r="Y1">
         <v>24</v>
       </c>
-      <c r="Z1" s="0">
+      <c r="Z1">
         <v>25</v>
       </c>
-      <c r="AA1" s="0">
+      <c r="AA1">
         <v>26</v>
       </c>
-      <c r="AB1" s="0">
+      <c r="AB1">
         <v>27</v>
       </c>
-      <c r="AC1" s="0">
+      <c r="AC1">
         <v>28</v>
       </c>
-      <c r="AD1" s="0">
+      <c r="AD1">
         <v>29</v>
       </c>
-      <c r="AE1" s="0">
+      <c r="AE1">
         <v>30</v>
       </c>
-      <c r="AF1" s="0">
+      <c r="AF1">
         <v>31</v>
       </c>
-      <c r="AG1" s="0">
+      <c r="AG1">
         <v>32</v>
       </c>
-      <c r="AH1" s="0">
+      <c r="AH1">
         <v>33</v>
       </c>
-      <c r="AI1" s="0">
+      <c r="AI1">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0">
+      <c r="AJ1">
         <v>35</v>
       </c>
-      <c r="AK1" s="0">
+      <c r="AK1">
         <v>36</v>
       </c>
-      <c r="AL1" s="0">
+      <c r="AL1">
         <v>37</v>
       </c>
-      <c r="AM1" s="0">
+      <c r="AM1">
         <v>38</v>
       </c>
-      <c r="AN1" s="0">
+      <c r="AN1">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>121</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>123</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>124</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>125</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3601,1211 +3421,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>183</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G1" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H1" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>188</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>190</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>192</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>196</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>198</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>199</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>202</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="G11" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>203</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>206</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>207</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H15" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>208</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G16" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H16" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>210</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G17" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H17" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>211</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G18" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H18" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>212</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="G19" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H19" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>213</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F20" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="G20" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H20" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="G21" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H21" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>215</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F22" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="G22" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H22" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D23" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="G23" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H23" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>217</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E24" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F24" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="G24" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H24" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>218</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D25" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="G25" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H25" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>219</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D26" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="G26" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H26" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="G27" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H27" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>221</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D28" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="G28" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H28" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>222</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E29" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F29" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="G29" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H29" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>223</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D30" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E30" t="s" s="0">
-        <v>209</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="G30" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H30" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>224</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D31" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E31" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F31" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G31" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H31" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>226</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D32" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E32" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F32" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G32" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H32" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>227</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D33" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E33" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F33" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G33" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H33" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>228</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D34" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E34" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F34" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="G34" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H34" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>229</v>
-      </c>
-      <c r="C35" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D35" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E35" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="G35" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H35" t="s" s="0">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B36" t="s" s="0">
-        <v>231</v>
-      </c>
-      <c r="C36" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D36" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="G36" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H36" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B37" t="s" s="0">
-        <v>232</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D37" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E37" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F37" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="G37" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H37" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E38" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F38" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="G38" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H38" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B39" t="s" s="0">
-        <v>234</v>
-      </c>
-      <c r="C39" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D39" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E39" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="G39" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H39" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B40" t="s" s="0">
-        <v>235</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D40" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E40" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F40" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="G40" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H40" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B41" t="s" s="0">
-        <v>236</v>
-      </c>
-      <c r="C41" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D41" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F41" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="G41" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H41" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B42" t="s" s="0">
-        <v>237</v>
-      </c>
-      <c r="C42" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D42" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E42" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F42" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="G42" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H42" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B43" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D43" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E43" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F43" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="G43" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H43" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E44" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F44" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="G44" t="s" s="0">
-        <v>189</v>
-      </c>
-      <c r="H44" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B45" t="s" s="0">
-        <v>240</v>
-      </c>
-      <c r="C45" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D45" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E45" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F45" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="G45" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="H45" t="s" s="0">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>224</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="D46" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="E46" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F46" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="G46" t="s" s="0">
-        <v>186</v>
-      </c>
-      <c r="H46" t="s" s="0">
-        <v>241</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
